--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.3824355177448773</v>
+        <v>6.382435512528005</v>
       </c>
       <c r="C2">
-        <v>11.052900121770218</v>
+        <v>11.052900110227096</v>
       </c>
       <c r="D2">
-        <v>4.1918271977263331</v>
+        <v>4.1918271609014663</v>
       </c>
       <c r="E2">
-        <v>15.01310575205472</v>
+        <v>15.013105756284679</v>
       </c>
       <c r="F2">
-        <v>-6.0788170662944276</v>
+        <v>-6.0788170768725234</v>
       </c>
       <c r="G2">
-        <v>9.9644105055503189</v>
+        <v>9.9644104952438308</v>
       </c>
       <c r="H2">
-        <v>10.018128685869979</v>
+        <v>10.018128676302503</v>
       </c>
       <c r="I2">
-        <v>6.9821971007998069</v>
+        <v>6.9821971001857452</v>
       </c>
       <c r="J2">
-        <v>10.861517494688023</v>
+        <v>10.861517491383241</v>
       </c>
       <c r="K2">
-        <v>15.858718377610902</v>
+        <v>15.858718367773116</v>
       </c>
       <c r="L2">
-        <v>12.033136495313366</v>
+        <v>12.033136480501069</v>
       </c>
       <c r="M2">
-        <v>7.8808651977962079</v>
+        <v>7.8808651797875013</v>
       </c>
       <c r="N2">
-        <v>15.130329055761447</v>
+        <v>15.130329015931455</v>
       </c>
       <c r="O2">
-        <v>6.3118047585652963</v>
+        <v>6.3118047363912879</v>
       </c>
       <c r="P2">
-        <v>9.0966767114138598</v>
+        <v>9.0966766926914051</v>
       </c>
       <c r="Q2">
-        <v>13.186505937705761</v>
+        <v>13.186505927100361</v>
       </c>
       <c r="R2">
-        <v>7.5833221463830647</v>
+        <v>7.5833221259513168</v>
       </c>
       <c r="S2">
-        <v>6.8204173203914555</v>
+        <v>6.8204173203671354</v>
       </c>
       <c r="T2">
-        <v>13.224128610713503</v>
+        <v>13.224128591880085</v>
       </c>
       <c r="U2">
-        <v>13.878955537103547</v>
+        <v>13.878955530311696</v>
       </c>
       <c r="V2">
-        <v>11.658640058210636</v>
+        <v>11.658640043764548</v>
       </c>
       <c r="W2">
-        <v>5.4887658354216544</v>
+        <v>5.488765808361971</v>
       </c>
       <c r="X2">
-        <v>14.768200254396593</v>
+        <v>14.768200255119984</v>
       </c>
       <c r="Y2">
-        <v>14.370104844687445</v>
+        <v>14.370104837787387</v>
       </c>
       <c r="Z2">
-        <v>10.576055051141516</v>
+        <v>10.576055042056536</v>
       </c>
       <c r="AA2">
-        <v>12.505783675086429</v>
+        <v>12.505783672837328</v>
       </c>
       <c r="AB2">
-        <v>12.784386027780711</v>
+        <v>12.784386026342467</v>
       </c>
       <c r="AC2">
-        <v>9.7159965178134868</v>
+        <v>9.7159964987947909</v>
       </c>
       <c r="AD2">
-        <v>13.543510860591738</v>
+        <v>13.543510863463828</v>
       </c>
       <c r="AE2">
-        <v>16.414748522876206</v>
+        <v>16.414748519343828</v>
       </c>
       <c r="AF2">
-        <v>11.959788099340676</v>
+        <v>11.959788089626031</v>
       </c>
       <c r="AG2">
-        <v>10.981890578379538</v>
+        <v>10.98189051964027</v>
       </c>
       <c r="AH2">
-        <v>8.5648687608308443</v>
+        <v>8.5648687555367697</v>
       </c>
       <c r="AI2">
-        <v>2.6225728188191986</v>
+        <v>2.62257282023814</v>
       </c>
       <c r="AJ2">
-        <v>9.377020391249328</v>
+        <v>9.3770203652100612</v>
       </c>
       <c r="AK2">
-        <v>11.483192707833318</v>
+        <v>11.483192711162239</v>
       </c>
       <c r="AL2">
-        <v>15.5912656970767</v>
+        <v>15.591265678342744</v>
       </c>
       <c r="AM2">
-        <v>11.898973562916138</v>
+        <v>11.898973535932836</v>
       </c>
       <c r="AN2">
-        <v>12.184112744199993</v>
+        <v>12.184112704331868</v>
       </c>
       <c r="AO2">
-        <v>16.908083498051973</v>
+        <v>16.908083471262746</v>
       </c>
       <c r="AP2">
-        <v>9.332693431669318</v>
+        <v>9.3326934181801899</v>
       </c>
       <c r="AQ2">
-        <v>11.548387046186406</v>
+        <v>11.548387016975301</v>
       </c>
       <c r="AR2">
-        <v>10.38003144878415</v>
+        <v>10.3800314482873</v>
       </c>
       <c r="AS2">
-        <v>14.086337476652828</v>
+        <v>14.086337458428691</v>
       </c>
       <c r="AT2">
-        <v>14.402847824355591</v>
+        <v>14.40284780126278</v>
       </c>
       <c r="AU2">
-        <v>9.9321468006921823</v>
+        <v>9.9321467844980749</v>
       </c>
       <c r="AV2">
-        <v>10.128852210049104</v>
+        <v>10.12885219179133</v>
       </c>
       <c r="AW2">
-        <v>12.634754635489614</v>
+        <v>12.63475461712037</v>
       </c>
       <c r="AX2">
-        <v>19.049364252704816</v>
+        <v>19.049364232308612</v>
       </c>
       <c r="AY2">
-        <v>13.791944453858509</v>
+        <v>13.791944442023254</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8696221265929367</v>
+        <v>6.8696221263998147</v>
       </c>
       <c r="C3">
-        <v>10.169507853335441</v>
+        <v>10.169507853293991</v>
       </c>
       <c r="D3">
-        <v>15.266044600803374</v>
+        <v>15.266044576960427</v>
       </c>
       <c r="E3">
-        <v>19.608024966121796</v>
+        <v>19.60802496335015</v>
       </c>
       <c r="F3">
-        <v>2.7065651409777702</v>
+        <v>2.7065651400031561</v>
       </c>
       <c r="G3">
-        <v>11.375532088347834</v>
+        <v>11.375532089286272</v>
       </c>
       <c r="H3">
-        <v>11.162443485266643</v>
+        <v>11.162443455221034</v>
       </c>
       <c r="I3">
-        <v>8.6374020935563056</v>
+        <v>8.6374020988095808</v>
       </c>
       <c r="J3">
-        <v>12.260593302875812</v>
+        <v>12.260593298378192</v>
       </c>
       <c r="K3">
-        <v>0.82487043658235959</v>
+        <v>0.8248704234536488</v>
       </c>
       <c r="L3">
-        <v>12.880384526150671</v>
+        <v>12.880384510844703</v>
       </c>
       <c r="M3">
-        <v>10.02026204743075</v>
+        <v>10.020172143934392</v>
       </c>
       <c r="N3">
-        <v>11.137679334234402</v>
+        <v>11.137679321092357</v>
       </c>
       <c r="O3">
-        <v>5.2817447417710985</v>
+        <v>5.2817447298443208</v>
       </c>
       <c r="P3">
-        <v>28.342942781762314</v>
+        <v>28.3429427612305</v>
       </c>
       <c r="Q3">
-        <v>8.1749114204839923</v>
+        <v>8.1749113955480794</v>
       </c>
       <c r="R3">
-        <v>8.205613818987862</v>
+        <v>8.2056138041284399</v>
       </c>
       <c r="S3">
-        <v>5.1960030985634331</v>
+        <v>5.196003092554526</v>
       </c>
       <c r="T3">
-        <v>7.1603032156175335</v>
+        <v>7.1603032048658619</v>
       </c>
       <c r="U3">
-        <v>12.648828575941874</v>
+        <v>12.648828564162345</v>
       </c>
       <c r="V3">
-        <v>12.807748008555258</v>
+        <v>12.807747999383279</v>
       </c>
       <c r="W3">
-        <v>8.9455113167626035</v>
+        <v>8.9455112997961397</v>
       </c>
       <c r="X3">
-        <v>5.1864686444611623</v>
+        <v>5.1864686343100335</v>
       </c>
       <c r="Y3">
-        <v>6.4803584775253764</v>
+        <v>6.4803584572353312</v>
       </c>
       <c r="Z3">
-        <v>10.829902409810135</v>
+        <v>10.829902396791336</v>
       </c>
       <c r="AA3">
-        <v>13.275216622095289</v>
+        <v>13.275216620078236</v>
       </c>
       <c r="AB3">
-        <v>11.109110770087655</v>
+        <v>11.109110771987826</v>
       </c>
       <c r="AC3">
-        <v>16.881231636298015</v>
+        <v>16.881231621338358</v>
       </c>
       <c r="AD3">
-        <v>21.825617454726508</v>
+        <v>21.825617441780441</v>
       </c>
       <c r="AE3">
-        <v>14.477163657650403</v>
+        <v>14.477163656528564</v>
       </c>
       <c r="AF3">
-        <v>13.77194190548742</v>
+        <v>13.771941900109097</v>
       </c>
       <c r="AG3">
-        <v>10.436876563248406</v>
+        <v>10.436876549722125</v>
       </c>
       <c r="AH3">
-        <v>10.267485171251025</v>
+        <v>10.26748516773988</v>
       </c>
       <c r="AI3">
-        <v>13.084038037376303</v>
+        <v>13.084038017734779</v>
       </c>
       <c r="AJ3">
-        <v>16.919973966212577</v>
+        <v>16.919973956517492</v>
       </c>
       <c r="AK3">
-        <v>12.905478242635485</v>
+        <v>12.905478229066883</v>
       </c>
       <c r="AL3">
-        <v>13.465052584539599</v>
+        <v>13.465052583390346</v>
       </c>
       <c r="AM3">
-        <v>10.222966883260467</v>
+        <v>10.222966852099287</v>
       </c>
       <c r="AN3">
-        <v>8.0829907446729763</v>
+        <v>8.0829907258230591</v>
       </c>
       <c r="AO3">
-        <v>8.4654935324269545</v>
+        <v>8.465493513950598</v>
       </c>
       <c r="AP3">
-        <v>12.557780808924146</v>
+        <v>12.557780803514268</v>
       </c>
       <c r="AQ3">
-        <v>12.223034269069592</v>
+        <v>12.223034247156038</v>
       </c>
       <c r="AR3">
-        <v>12.746316170346054</v>
+        <v>12.746316162606927</v>
       </c>
       <c r="AS3">
-        <v>11.124730855671828</v>
+        <v>11.124730849771574</v>
       </c>
       <c r="AT3">
-        <v>11.566909385266582</v>
+        <v>11.56690936614932</v>
       </c>
       <c r="AU3">
-        <v>14.149356184601993</v>
+        <v>14.149356175647535</v>
       </c>
       <c r="AV3">
-        <v>13.55145249847774</v>
+        <v>13.551452457867896</v>
       </c>
       <c r="AW3">
-        <v>15.102235950070364</v>
+        <v>15.102235937858971</v>
       </c>
       <c r="AX3">
-        <v>30.795720551604973</v>
+        <v>30.795720542732653</v>
       </c>
       <c r="AY3">
-        <v>20.432674249719742</v>
+        <v>20.432674233485688</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>6.382435512528005</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>11.052900110227096</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.1918271609014663</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>15.013105756284679</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.0788170768725234</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.9644104952438308</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.018128676302503</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.9821971001857452</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.861517491383241</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.858718367773116</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.033136480501069</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.8808651797875013</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.130329015931455</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.3118047363912879</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>9.0966766926914051</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.186505927100361</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.5833221259513168</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.8204173203671354</v>
+        <v>6.8204057797774924</v>
       </c>
       <c r="T2">
-        <v>13.224128591880085</v>
+        <v>13.224115593324717</v>
       </c>
       <c r="U2">
-        <v>13.878955530311696</v>
+        <v>13.878939254888714</v>
       </c>
       <c r="V2">
-        <v>11.658640043764548</v>
+        <v>11.658627319818267</v>
       </c>
       <c r="W2">
-        <v>5.488765808361971</v>
+        <v>5.4887524097867058</v>
       </c>
       <c r="X2">
-        <v>14.768200255119984</v>
+        <v>14.768216022879113</v>
       </c>
       <c r="Y2">
-        <v>14.370104837787387</v>
+        <v>14.37012227663525</v>
       </c>
       <c r="Z2">
-        <v>10.576055042056536</v>
+        <v>10.576069808734502</v>
       </c>
       <c r="AA2">
-        <v>12.505783672837328</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>12.784386026342467</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.7159964987947909</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>13.543510863463828</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>16.414748519343828</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.959788089626031</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.98189051964027</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8.5648687555367697</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.62257282023814</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.3770203652100612</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>11.483192711162239</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>15.591265678342744</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.898973535932836</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.184112704331868</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>16.908083471262746</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>9.3326934181801899</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.548387016975301</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.3800314482873</v>
+        <v>10.380019302702625</v>
       </c>
       <c r="AS2">
-        <v>14.086337458428691</v>
+        <v>14.086324429553354</v>
       </c>
       <c r="AT2">
         <v>14.40284780126278</v>
       </c>
       <c r="AU2">
-        <v>9.9321467844980749</v>
+        <v>9.9321343474291481</v>
       </c>
       <c r="AV2">
         <v>10.12885219179133</v>
       </c>
       <c r="AW2">
-        <v>12.63475461712037</v>
+        <v>12.634769636060339</v>
       </c>
       <c r="AX2">
-        <v>19.049364232308612</v>
+        <v>19.049383290294866</v>
       </c>
       <c r="AY2">
         <v>13.791944442023254</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.8696221263998147</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.169507853293991</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.266044576960427</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19.60802496335015</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.7065651400031561</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.375532089286272</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>11.162443455221034</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.6374020988095808</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.260593298378192</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8248704234536488</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.880384510844703</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.020172143934392</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.137679321092357</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.2817447298443208</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>28.3429427612305</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>8.1749113955480794</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.2056138041284399</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>5.196003092554526</v>
       </c>
       <c r="T3">
-        <v>7.1603032048658619</v>
+        <v>7.1602905589177794</v>
       </c>
       <c r="U3">
-        <v>12.648828564162345</v>
+        <v>12.648812459022718</v>
       </c>
       <c r="V3">
-        <v>12.807747999383279</v>
+        <v>12.807734155880912</v>
       </c>
       <c r="W3">
-        <v>8.9455112997961397</v>
+        <v>8.9454980180574815</v>
       </c>
       <c r="X3">
-        <v>5.1864686343100335</v>
+        <v>5.1864549931993862</v>
       </c>
       <c r="Y3">
-        <v>6.4803584572353312</v>
+        <v>6.4803733893428026</v>
       </c>
       <c r="Z3">
-        <v>10.829902396791336</v>
+        <v>10.829917151578568</v>
       </c>
       <c r="AA3">
-        <v>13.275216620078236</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>11.109110771987826</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.881231621338358</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>21.825617441780441</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>14.477163656528564</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.771941900109097</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.436876549722125</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>10.26748516773988</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>13.084038017734779</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>16.919973956517492</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>12.905478229066883</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.465052583390346</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>10.222966852099287</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.0829907258230591</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.465493513950598</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.557780803514268</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>12.223034247156038</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>12.746316162606927</v>
+        <v>12.746303807450317</v>
       </c>
       <c r="AS3">
         <v>11.124730849771574</v>
       </c>
       <c r="AT3">
-        <v>11.56690936614932</v>
+        <v>11.566893893829238</v>
       </c>
       <c r="AU3">
-        <v>14.149356175647535</v>
+        <v>14.149342149116928</v>
       </c>
       <c r="AV3">
-        <v>13.551452457867896</v>
+        <v>13.551466660998349</v>
       </c>
       <c r="AW3">
-        <v>15.102235937858971</v>
+        <v>15.10222028738861</v>
       </c>
       <c r="AX3">
-        <v>30.795720542732653</v>
+        <v>30.795740818050955</v>
       </c>
       <c r="AY3">
         <v>20.432674233485688</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.3824239575235868</v>
+        <v>6.3118189179278641</v>
       </c>
       <c r="C2">
-        <v>11.707958129527519</v>
+        <v>7.583308857097931</v>
       </c>
       <c r="D2">
-        <v>4.1918271977263331</v>
+        <v>12.184128701107621</v>
       </c>
       <c r="E2">
-        <v>18.940505776649726</v>
+        <v>11.548387016975301</v>
       </c>
       <c r="F2">
         <v>-6.0788293669465654</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8696221265929367</v>
+        <v>5.2817447298443208</v>
       </c>
       <c r="C3">
-        <v>12.847923355465586</v>
+        <v>8.20560062016256</v>
       </c>
       <c r="D3">
-        <v>15.266027850007955</v>
+        <v>8.0830055985159763</v>
       </c>
       <c r="E3">
-        <v>19.608006373267223</v>
+        <v>12.343011764612253</v>
       </c>
       <c r="F3">
         <v>2.7065789109115004</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.3824239575235868</v>
+        <v>0.4763908301733073</v>
       </c>
       <c r="C2">
-        <v>11.707958129527519</v>
+        <v>6.3118189179278641</v>
       </c>
       <c r="D2">
-        <v>4.1918271977263331</v>
+        <v>7.9502199932933806</v>
       </c>
       <c r="E2">
-        <v>18.940505776649726</v>
+        <v>12.184128701107621</v>
       </c>
       <c r="F2">
         <v>-6.0788293669465654</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8696221265929367</v>
+        <v>-5.9463987840165569</v>
       </c>
       <c r="C3">
-        <v>12.847923355465586</v>
+        <v>5.2817447298443208</v>
       </c>
       <c r="D3">
-        <v>15.266027850007955</v>
+        <v>15.634886854866414</v>
       </c>
       <c r="E3">
-        <v>19.608006373267223</v>
+        <v>8.0830055985159763</v>
       </c>
       <c r="F3">
         <v>2.7065789109115004</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>6.3824239523067137</v>
+      </c>
+      <c r="C2">
+        <v>11.707958117916311</v>
+      </c>
+      <c r="D2">
+        <v>4.1918271609014663</v>
+      </c>
+      <c r="E2">
+        <v>18.940505781024125</v>
+      </c>
+      <c r="F2">
+        <v>-6.0788293775246593</v>
+      </c>
+      <c r="G2">
+        <v>9.9643961486933019</v>
+      </c>
+      <c r="H2">
+        <v>10.018142485009731</v>
+      </c>
+      <c r="I2">
+        <v>6.9821858981506333</v>
+      </c>
+      <c r="J2">
+        <v>10.86153091860422</v>
+      </c>
+      <c r="K2">
+        <v>15.85873282814717</v>
+      </c>
+      <c r="L2">
+        <v>12.033123155517718</v>
+      </c>
+      <c r="M2">
+        <v>7.8808768111107126</v>
+      </c>
+      <c r="N2">
         <v>0.4763908301733073</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>6.3118189179278641</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>9.0966766926914051</v>
+      </c>
+      <c r="Q2">
+        <v>26.304592783752206</v>
+      </c>
+      <c r="R2">
+        <v>7.583308857097931</v>
+      </c>
+      <c r="S2">
+        <v>6.8204057797774924</v>
+      </c>
+      <c r="T2">
+        <v>13.224115593324717</v>
+      </c>
+      <c r="U2">
+        <v>13.878939254888714</v>
+      </c>
+      <c r="V2">
+        <v>11.658627319818267</v>
+      </c>
+      <c r="W2">
+        <v>5.4887524097867058</v>
+      </c>
+      <c r="X2">
+        <v>14.768216022879113</v>
+      </c>
+      <c r="Y2">
+        <v>14.37012227663525</v>
+      </c>
+      <c r="Z2">
+        <v>10.576069808734502</v>
+      </c>
+      <c r="AA2">
+        <v>12.505796278404629</v>
+      </c>
+      <c r="AB2">
+        <v>1.7597989477992102</v>
+      </c>
+      <c r="AC2">
+        <v>9.716011623405139</v>
+      </c>
+      <c r="AD2">
+        <v>10.1802619673112</v>
+      </c>
+      <c r="AE2">
+        <v>16.414748519343828</v>
+      </c>
+      <c r="AF2">
+        <v>11.959773666196091</v>
+      </c>
+      <c r="AG2">
+        <v>10.98189051964027</v>
+      </c>
+      <c r="AH2">
+        <v>8.5648573392722813</v>
+      </c>
+      <c r="AI2">
+        <v>2.6225605194188431</v>
+      </c>
+      <c r="AJ2">
+        <v>9.3770335902331219</v>
+      </c>
+      <c r="AK2">
+        <v>11.483205759036879</v>
+      </c>
+      <c r="AL2">
+        <v>15.591265678342744</v>
+      </c>
+      <c r="AM2">
         <v>7.9502199932933806</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.184128701107621</v>
       </c>
-      <c r="F2">
-        <v>-6.0788293669465654</v>
-      </c>
-      <c r="G2">
-        <v>9.9643961589997865</v>
-      </c>
-      <c r="H2">
-        <v>10.018142494577207</v>
-      </c>
-      <c r="I2">
-        <v>6.982185898764695</v>
-      </c>
-      <c r="J2">
-        <v>10.861530921909004</v>
-      </c>
-      <c r="K2">
-        <v>15.858732837984959</v>
-      </c>
-      <c r="L2">
-        <v>12.033123170330013</v>
-      </c>
-      <c r="M2">
-        <v>7.8808768291194227</v>
-      </c>
-      <c r="N2">
-        <v>0.4763908649336876</v>
-      </c>
-      <c r="O2">
-        <v>6.3118189401018752</v>
-      </c>
-      <c r="P2">
-        <v>9.0966767114138598</v>
-      </c>
-      <c r="Q2">
-        <v>26.304592795586757</v>
-      </c>
-      <c r="R2">
-        <v>7.583308877529678</v>
-      </c>
-      <c r="S2">
-        <v>6.8204057798018152</v>
-      </c>
-      <c r="T2">
-        <v>13.224115612158135</v>
-      </c>
-      <c r="U2">
-        <v>13.878939261680562</v>
-      </c>
-      <c r="V2">
-        <v>11.658627334264352</v>
-      </c>
-      <c r="W2">
-        <v>5.4887524368463856</v>
-      </c>
-      <c r="X2">
-        <v>14.768216022155725</v>
-      </c>
-      <c r="Y2">
-        <v>14.370122283535311</v>
-      </c>
-      <c r="Z2">
-        <v>10.576069817819485</v>
-      </c>
-      <c r="AA2">
-        <v>12.50579628065373</v>
-      </c>
-      <c r="AB2">
-        <v>1.7597989490968671</v>
-      </c>
-      <c r="AC2">
-        <v>9.7160116424238367</v>
-      </c>
-      <c r="AD2">
-        <v>10.180261964524181</v>
-      </c>
-      <c r="AE2">
-        <v>16.414748522876206</v>
-      </c>
-      <c r="AF2">
-        <v>11.959773675910734</v>
-      </c>
-      <c r="AG2">
-        <v>10.981890578379538</v>
-      </c>
-      <c r="AH2">
-        <v>8.5648573445663558</v>
-      </c>
-      <c r="AI2">
-        <v>2.6225605179999016</v>
-      </c>
-      <c r="AJ2">
-        <v>9.3770336162723922</v>
-      </c>
-      <c r="AK2">
-        <v>11.483205755707958</v>
-      </c>
-      <c r="AL2">
-        <v>15.5912656970767</v>
-      </c>
-      <c r="AM2">
-        <v>7.9502200193244814</v>
-      </c>
-      <c r="AN2">
-        <v>12.184128740975751</v>
-      </c>
       <c r="AO2">
-        <v>16.908083498051973</v>
+        <v>16.908083471262746</v>
       </c>
       <c r="AP2">
-        <v>9.4692065418601814</v>
+        <v>9.469206522094046</v>
       </c>
       <c r="AQ2">
-        <v>11.548387046186406</v>
+        <v>11.548387016975301</v>
       </c>
       <c r="AR2">
-        <v>10.380019303199477</v>
+        <v>10.380019302702625</v>
       </c>
       <c r="AS2">
-        <v>14.086324447777491</v>
+        <v>14.086324429553354</v>
       </c>
       <c r="AT2">
-        <v>14.402847824355591</v>
+        <v>14.40284780126278</v>
       </c>
       <c r="AU2">
-        <v>9.9321343636232537</v>
+        <v>9.9321343474291481</v>
       </c>
       <c r="AV2">
-        <v>10.128852210049104</v>
+        <v>10.12885219179133</v>
       </c>
       <c r="AW2">
-        <v>12.634769654429586</v>
+        <v>12.634769636060339</v>
       </c>
       <c r="AX2">
-        <v>19.049383310691073</v>
+        <v>19.049383290294866</v>
       </c>
       <c r="AY2">
-        <v>13.791944453858509</v>
+        <v>13.791944442023254</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.8696221263998147</v>
+      </c>
+      <c r="C3">
+        <v>12.847923355423127</v>
+      </c>
+      <c r="D3">
+        <v>15.26602782616501</v>
+      </c>
+      <c r="E3">
+        <v>19.608006370495577</v>
+      </c>
+      <c r="F3">
+        <v>2.7065789099368862</v>
+      </c>
+      <c r="G3">
+        <v>11.375517367359153</v>
+      </c>
+      <c r="H3">
+        <v>11.162457823901466</v>
+      </c>
+      <c r="I3">
+        <v>8.6374135114467201</v>
+      </c>
+      <c r="J3">
+        <v>13.185815730603046</v>
+      </c>
+      <c r="K3">
+        <v>0.8248704234536488</v>
+      </c>
+      <c r="L3">
+        <v>12.880397687726166</v>
+      </c>
+      <c r="M3">
+        <v>10.020172143934392</v>
+      </c>
+      <c r="N3">
         <v>-5.9463987840165569</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.2817447298443208</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>28.342924219156391</v>
+      </c>
+      <c r="Q3">
+        <v>8.1749226255073069</v>
+      </c>
+      <c r="R3">
+        <v>8.20560062016256</v>
+      </c>
+      <c r="S3">
+        <v>5.196003092554526</v>
+      </c>
+      <c r="T3">
+        <v>7.1602905589177794</v>
+      </c>
+      <c r="U3">
+        <v>12.648812459022718</v>
+      </c>
+      <c r="V3">
+        <v>12.807734155880912</v>
+      </c>
+      <c r="W3">
+        <v>8.8953641581969922</v>
+      </c>
+      <c r="X3">
+        <v>5.1864549931993862</v>
+      </c>
+      <c r="Y3">
+        <v>6.4803733893428026</v>
+      </c>
+      <c r="Z3">
+        <v>10.829917151578568</v>
+      </c>
+      <c r="AA3">
+        <v>13.275204159385485</v>
+      </c>
+      <c r="AB3">
+        <v>10.081316434936831</v>
+      </c>
+      <c r="AC3">
+        <v>16.881248355458698</v>
+      </c>
+      <c r="AD3">
+        <v>21.825617441780441</v>
+      </c>
+      <c r="AE3">
+        <v>14.477147235938363</v>
+      </c>
+      <c r="AF3">
+        <v>13.771926792891914</v>
+      </c>
+      <c r="AG3">
+        <v>10.436876549722125</v>
+      </c>
+      <c r="AH3">
+        <v>10.002516337106544</v>
+      </c>
+      <c r="AI3">
+        <v>13.720922397638596</v>
+      </c>
+      <c r="AJ3">
+        <v>16.919959030407565</v>
+      </c>
+      <c r="AK3">
+        <v>12.905491306728914</v>
+      </c>
+      <c r="AL3">
+        <v>13.465052583390346</v>
+      </c>
+      <c r="AM3">
         <v>15.634886854866414</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>8.0830055985159763</v>
       </c>
-      <c r="F3">
-        <v>2.7065789109115004</v>
-      </c>
-      <c r="G3">
-        <v>11.375517366420716</v>
-      </c>
-      <c r="H3">
-        <v>11.162457853947078</v>
-      </c>
-      <c r="I3">
-        <v>8.6374135061934432</v>
-      </c>
-      <c r="J3">
-        <v>13.185815735137732</v>
-      </c>
-      <c r="K3">
-        <v>0.82487043658235959</v>
-      </c>
-      <c r="L3">
-        <v>12.880397703032138</v>
-      </c>
-      <c r="M3">
-        <v>10.02026204743075</v>
-      </c>
-      <c r="N3">
-        <v>-5.9463987728947059</v>
-      </c>
-      <c r="O3">
-        <v>5.2817447417710985</v>
-      </c>
-      <c r="P3">
-        <v>28.342924239688205</v>
-      </c>
-      <c r="Q3">
-        <v>8.1749226504432215</v>
-      </c>
-      <c r="R3">
-        <v>8.2056006350219803</v>
-      </c>
-      <c r="S3">
-        <v>5.1960030985634331</v>
-      </c>
-      <c r="T3">
-        <v>7.1602905696694519</v>
-      </c>
-      <c r="U3">
-        <v>12.648812470802245</v>
-      </c>
-      <c r="V3">
-        <v>12.807734165052889</v>
-      </c>
-      <c r="W3">
-        <v>8.8953642393624719</v>
-      </c>
-      <c r="X3">
-        <v>5.1864550033505141</v>
-      </c>
-      <c r="Y3">
-        <v>6.4803734096328505</v>
-      </c>
-      <c r="Z3">
-        <v>10.82991716459737</v>
-      </c>
-      <c r="AA3">
-        <v>13.275204161402538</v>
-      </c>
-      <c r="AB3">
-        <v>10.081316433054235</v>
-      </c>
-      <c r="AC3">
-        <v>16.881248370418358</v>
-      </c>
-      <c r="AD3">
-        <v>21.825617454726508</v>
-      </c>
-      <c r="AE3">
-        <v>14.477147237060201</v>
-      </c>
-      <c r="AF3">
-        <v>13.771926798270236</v>
-      </c>
-      <c r="AG3">
-        <v>10.436876563248406</v>
-      </c>
-      <c r="AH3">
-        <v>10.002516339000074</v>
-      </c>
-      <c r="AI3">
-        <v>13.72092241739074</v>
-      </c>
-      <c r="AJ3">
-        <v>16.919959040102654</v>
-      </c>
-      <c r="AK3">
-        <v>12.905491320297516</v>
-      </c>
-      <c r="AL3">
-        <v>13.465052584539599</v>
-      </c>
-      <c r="AM3">
-        <v>15.634886887557601</v>
-      </c>
-      <c r="AN3">
-        <v>8.0830056173658953</v>
-      </c>
       <c r="AO3">
-        <v>8.4654935324269545</v>
+        <v>8.465493513950598</v>
       </c>
       <c r="AP3">
-        <v>12.557792957969749</v>
+        <v>12.55779295255987</v>
       </c>
       <c r="AQ3">
-        <v>12.343011787187674</v>
+        <v>12.343011764612253</v>
       </c>
       <c r="AR3">
-        <v>12.746303815189444</v>
+        <v>12.746303807450317</v>
       </c>
       <c r="AS3">
-        <v>11.124730855671828</v>
+        <v>11.124730849771574</v>
       </c>
       <c r="AT3">
-        <v>11.566893912946499</v>
+        <v>11.566893893829238</v>
       </c>
       <c r="AU3">
-        <v>14.149342158071388</v>
+        <v>14.149342149116928</v>
       </c>
       <c r="AV3">
-        <v>13.551466701608195</v>
+        <v>13.551466660998349</v>
       </c>
       <c r="AW3">
-        <v>15.102220299600003</v>
+        <v>15.10222028738861</v>
       </c>
       <c r="AX3">
-        <v>30.795740826923275</v>
+        <v>30.795740818050955</v>
       </c>
       <c r="AY3">
-        <v>20.432674249719742</v>
+        <v>20.432674233485688</v>
       </c>
     </row>
   </sheetData>
